--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnou\PycharmProjects\MasterThesis\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A956AE03-E98C-4E9C-BDC3-8A86984AE468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B9AB6-1DC5-4485-8357-23F3CF666B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{63EF62B4-E78E-462F-9365-04DCC93511B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{63EF62B4-E78E-462F-9365-04DCC93511B2}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE" sheetId="1" r:id="rId1"/>
@@ -174,9 +174,6 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>DeepConn</t>
-  </si>
-  <si>
     <t>IICF</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>sentiment bij users indien wel bij restaurant</t>
+  </si>
+  <si>
+    <t>DeepCoNN</t>
   </si>
 </sst>
 </file>
@@ -6035,7 +6035,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DeepConn</c:v>
+                  <c:v>DeepCoNN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22476,35 +22476,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5C969E-5023-4A5F-BC73-E9F1BEC3D887}">
   <dimension ref="A1:BC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -22512,12 +22512,12 @@
         <v>0.10920000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>0.10920000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -22572,7 +22572,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -22623,7 +22623,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -22647,7 +22647,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -22671,7 +22671,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -22695,7 +22695,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -22705,12 +22705,12 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>31</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -22729,7 +22729,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -22740,12 +22740,12 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -22753,47 +22753,47 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <f>_xlfn.T.TEST(D8:D13,C3:C4,2,2)</f>
         <v>2.2597821356498881E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <f>_xlfn.T.TEST(E8:E13,D8:D13,2,2)</f>
         <v>0.74616440400929984</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <f>_xlfn.T.TEST(C9:H9,C10:H10,2,2)</f>
         <v>4.1188579151561874E-4</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35">
         <v>9.3852000000000005E-2</v>
@@ -22802,9 +22802,9 @@
         <v>9.0936000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <f>_xlfn.T.TEST(F35:F37,G35:G37,2,2)</f>
@@ -22817,9 +22817,9 @@
         <v>9.1476000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <f>_xlfn.T.TEST(F39:F41,G39:G41,2,2)</f>
@@ -22832,16 +22832,16 @@
         <v>8.9640000000000011E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <f>_xlfn.T.TEST(D8:D13,C8:C13,2,2)</f>
         <v>0.78125545456953494</v>
       </c>
       <c r="E39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39">
         <v>8.3592E-2</v>
@@ -22850,9 +22850,9 @@
         <v>8.8020000000000015E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <f>_xlfn.T.TEST(C8:H8,C9:H9,2,2)</f>
@@ -22865,7 +22865,7 @@
         <v>8.7372000000000005E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>8.4348000000000006E-2</v>
       </c>
@@ -22873,63 +22873,63 @@
         <v>8.8452000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <f>_xlfn.T.TEST(H8:H13,D8:D13,2,2)</f>
         <v>0.9297071416937388</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <f>_xlfn.T.TEST(C10:H10,C13:H13,2,2)</f>
         <v>0.9640850679905657</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <f>_xlfn.T.TEST(G8:G13,D8:D13,2,2)</f>
         <v>0.68465126353411421</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <f>_xlfn.T.TEST(C10:H10,C11:H11,2,2)</f>
         <v>0.35438077758457831</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <f>_xlfn.T.TEST(D19:D20,C19:C20,2,2)</f>
         <v>0.39321196358786215</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <f>_xlfn.T.TEST(C20:D20,C19:D19,2,2)</f>
         <v>0.20650795238412878</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -22946,15 +22946,15 @@
       <selection activeCell="A12" sqref="A12:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>24</v>
       </c>
@@ -22965,7 +22965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -22979,7 +22979,7 @@
         <v>7.1258448700761798E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -22993,7 +22993,7 @@
         <v>7.20248686702923E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -23007,7 +23007,7 @@
         <v>7.17970787091681E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -23021,22 +23021,22 @@
         <v>7.14644568662995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -23050,7 +23050,7 @@
         <v>7.17970787091681E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -23064,7 +23064,7 @@
         <v>-0.54592871665954501</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>6.8005327634693594E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -23092,7 +23092,7 @@
         <v>2.8102540408642698E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -23120,36 +23120,36 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -23194,7 +23194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -23224,15 +23224,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -23244,7 +23244,7 @@
         <v>8.3592E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -23256,7 +23256,7 @@
         <v>8.4024000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -23268,7 +23268,7 @@
         <v>8.208E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -23280,7 +23280,7 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -23302,22 +23302,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5334E890-BD1A-433D-8F9F-B4C1F41C807D}">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -23325,57 +23325,57 @@
         <v>3.1015999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6">
         <v>1.2713457606712599</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6">
         <v>1.56193</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6">
         <v>1.2878167725719301</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="6">
         <v>1.1529199999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C9" s="6">
         <v>1.1641999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="6">
         <v>1.4025350000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="6">
         <v>1.1106754701499999</v>

--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnou\PycharmProjects\MasterThesis\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\MasterThesis\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B9AB6-1DC5-4485-8357-23F3CF666B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01912D7C-1CCE-4586-8731-823E33651BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{63EF62B4-E78E-462F-9365-04DCC93511B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="3" xr2:uid="{63EF62B4-E78E-462F-9365-04DCC93511B2}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>USER</t>
   </si>
@@ -257,6 +257,12 @@
   <si>
     <t>DeepCoNN</t>
   </si>
+  <si>
+    <t>Own Random Forest</t>
+  </si>
+  <si>
+    <t>Own Neural Network</t>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +316,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -334,7 +340,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -417,7 +423,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -648,7 +654,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88617744"/>
@@ -732,7 +738,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -764,7 +770,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -806,7 +812,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -843,7 +849,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -857,7 +863,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -939,7 +945,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -993,7 +999,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1085,7 +1091,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1177,7 +1183,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1269,7 +1275,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1424,7 +1430,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1456,7 +1462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -1499,7 +1505,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1536,7 +1542,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1550,7 +1556,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1617,7 +1623,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1668,7 +1674,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1805,7 +1811,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685755679"/>
@@ -1864,7 +1870,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685751359"/>
@@ -1906,7 +1912,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1920,7 +1926,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1987,7 +1993,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2038,7 +2044,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2175,7 +2181,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685755679"/>
@@ -2235,7 +2241,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685751359"/>
@@ -2276,7 +2282,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2290,7 +2296,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2357,7 +2363,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2410,7 +2416,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2547,7 +2553,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685755679"/>
@@ -2608,7 +2614,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685751359"/>
@@ -2650,7 +2656,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2664,7 +2670,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2726,7 +2732,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2779,7 +2785,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2918,7 +2924,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685755679"/>
@@ -2977,7 +2983,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685751359"/>
@@ -3019,7 +3025,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3033,7 +3039,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3095,7 +3101,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3146,7 +3152,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3285,7 +3291,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685755679"/>
@@ -3344,7 +3350,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685751359"/>
@@ -3386,7 +3392,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3400,7 +3406,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3462,7 +3468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3542,7 +3548,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3681,7 +3687,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685755679"/>
@@ -3742,7 +3748,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685751359"/>
@@ -3784,7 +3790,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3798,7 +3804,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3869,7 +3875,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3931,7 +3937,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4267,7 +4273,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4403,7 +4409,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685755679"/>
@@ -4462,7 +4468,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685751359"/>
@@ -4506,7 +4512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2105321424"/>
@@ -4574,7 +4580,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4604,7 +4610,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4618,7 +4624,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4703,7 +4709,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4786,7 +4792,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5080,7 +5086,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5216,7 +5222,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685755679"/>
@@ -5277,7 +5283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1685751359"/>
@@ -5322,7 +5328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2105321424"/>
@@ -5390,7 +5396,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5420,7 +5426,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5434,7 +5440,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5515,7 +5521,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5577,7 +5583,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5677,7 +5683,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5777,7 +5783,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5877,7 +5883,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5977,7 +5983,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6077,7 +6083,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6179,7 +6185,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6281,7 +6287,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6436,7 +6442,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6468,7 +6474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -6511,7 +6517,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6548,7 +6554,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6562,7 +6568,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6663,7 +6669,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6894,7 +6900,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88617744"/>
@@ -6986,7 +6992,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7018,7 +7024,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -7060,7 +7066,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7097,7 +7103,1130 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE" sz="1800"/>
+              <a:t>Different Implentations for recommender systems</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE" sz="1800"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" sz="1800" baseline="0"/>
+              <a:t> based on RMSE</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare_MLP!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CB </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>compare_MLP!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.1015999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-756F-467E-9001-0132DA309B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare_MLP!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IICF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>compare_MLP!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.56193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-756F-467E-9001-0132DA309B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare_MLP!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UUCF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>compare_MLP!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2713457606712599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-756F-467E-9001-0132DA309B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare_MLP!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bias Recommender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>compare_MLP!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2878167725719301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-756F-467E-9001-0132DA309B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare_MLP!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wide &amp; Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>compare_MLP!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.4025350000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-756F-467E-9001-0132DA309B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare_MLP!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepCoNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>compare_MLP!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.1641999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-756F-467E-9001-0132DA309B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare_MLP!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Own Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>compare_MLP!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.1529199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-756F-467E-9001-0132DA309B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>compare_MLP!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Own Neural Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>compare_MLP!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.1106754701499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-756F-467E-9001-0132DA309B3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="88621104"/>
+        <c:axId val="88617744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="88621104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88617744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88617744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.3"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88621104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.60000000000000009"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7111,7 +8240,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7194,7 +8323,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7425,7 +8554,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88617744"/>
@@ -7509,7 +8638,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7541,7 +8670,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -7583,7 +8712,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7620,7 +8749,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7634,7 +8763,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7812,7 +8941,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8043,7 +9172,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88617744"/>
@@ -8135,7 +9264,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8167,7 +9296,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -8209,7 +9338,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8246,7 +9375,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8260,7 +9389,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8343,7 +9472,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8574,7 +9703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88617744"/>
@@ -8657,7 +9786,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8689,7 +9818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -8731,7 +9860,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8768,7 +9897,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8782,7 +9911,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8924,7 +10053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9155,7 +10284,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88617744"/>
@@ -9247,7 +10376,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9279,7 +10408,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -9321,7 +10450,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9358,7 +10487,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9372,7 +10501,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9455,7 +10584,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9686,7 +10815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88617744"/>
@@ -9769,7 +10898,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9801,7 +10930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -9843,7 +10972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9880,7 +11009,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9894,7 +11023,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10072,7 +11201,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10303,7 +11432,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88617744"/>
@@ -10395,7 +11524,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10427,7 +11556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -10469,7 +11598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10506,7 +11635,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10520,7 +11649,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10605,7 +11734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10659,7 +11788,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10751,7 +11880,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10843,7 +11972,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nl-BE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10998,7 +12127,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11030,7 +12159,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="88621104"/>
@@ -11072,7 +12201,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11109,7 +12238,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11600,6 +12729,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17414,6 +18583,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22174,11 +23846,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A24C19-50EF-4881-BD05-6D51D729FEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -22480,31 +24190,31 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -22512,12 +24222,12 @@
         <v>0.10920000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>0.10920000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -22525,7 +24235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -22548,7 +24258,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -22572,7 +24282,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -22596,7 +24306,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -22623,7 +24333,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -22647,7 +24357,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -22671,7 +24381,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -22695,7 +24405,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -22705,12 +24415,12 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>31</v>
       </c>
@@ -22718,7 +24428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -22729,7 +24439,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -22740,12 +24450,12 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -22753,12 +24463,12 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>63</v>
       </c>
@@ -22767,7 +24477,7 @@
         <v>2.2597821356498881E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>53</v>
       </c>
@@ -22776,7 +24486,7 @@
         <v>0.74616440400929984</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>54</v>
       </c>
@@ -22791,7 +24501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>67</v>
       </c>
@@ -22802,7 +24512,7 @@
         <v>9.0936000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>68</v>
       </c>
@@ -22817,7 +24527,7 @@
         <v>9.1476000000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>69</v>
       </c>
@@ -22832,7 +24542,7 @@
         <v>8.9640000000000011E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>55</v>
       </c>
@@ -22850,7 +24560,7 @@
         <v>8.8020000000000015E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>56</v>
       </c>
@@ -22865,7 +24575,7 @@
         <v>8.7372000000000005E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F41">
         <v>8.4348000000000006E-2</v>
       </c>
@@ -22873,7 +24583,7 @@
         <v>8.8452000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>57</v>
       </c>
@@ -22882,7 +24592,7 @@
         <v>0.9297071416937388</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>58</v>
       </c>
@@ -22891,7 +24601,7 @@
         <v>0.9640850679905657</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>59</v>
       </c>
@@ -22900,7 +24610,7 @@
         <v>0.68465126353411421</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>60</v>
       </c>
@@ -22909,7 +24619,7 @@
         <v>0.35438077758457831</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>61</v>
       </c>
@@ -22918,7 +24628,7 @@
         <v>0.39321196358786215</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>62</v>
       </c>
@@ -22927,7 +24637,7 @@
         <v>0.20650795238412878</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -22946,15 +24656,15 @@
       <selection activeCell="A12" sqref="A12:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>24</v>
       </c>
@@ -22965,7 +24675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -22979,7 +24689,7 @@
         <v>7.1258448700761798E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -22993,7 +24703,7 @@
         <v>7.20248686702923E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -23007,7 +24717,7 @@
         <v>7.17970787091681E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -23021,22 +24731,22 @@
         <v>7.14644568662995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -23050,7 +24760,7 @@
         <v>7.17970787091681E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -23064,7 +24774,7 @@
         <v>-0.54592871665954501</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -23078,7 +24788,7 @@
         <v>6.8005327634693594E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -23092,7 +24802,7 @@
         <v>2.8102540408642698E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -23120,23 +24830,23 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>49</v>
       </c>
@@ -23144,12 +24854,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -23164,7 +24874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -23179,7 +24889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -23194,7 +24904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -23209,7 +24919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -23224,15 +24934,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -23244,7 +24954,7 @@
         <v>8.3592E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -23256,7 +24966,7 @@
         <v>8.4024000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -23268,7 +24978,7 @@
         <v>8.208E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -23280,7 +24990,7 @@
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -23300,24 +25010,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5334E890-BD1A-433D-8F9F-B4C1F41C807D}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AM34" sqref="AM34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -23325,7 +25035,7 @@
         <v>3.1015999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -23333,7 +25043,7 @@
         <v>1.2713457606712599</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -23341,7 +25051,7 @@
         <v>1.56193</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -23349,7 +25059,7 @@
         <v>1.2878167725719301</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -23357,7 +25067,7 @@
         <v>1.1529199999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -23365,7 +25075,7 @@
         <v>1.1641999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -23373,7 +25083,7 @@
         <v>1.4025350000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -23381,6 +25091,46 @@
         <v>1.1106754701499999</v>
       </c>
     </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
